--- a/DoAn/dataset/suppliers.xlsx
+++ b/DoAn/dataset/suppliers.xlsx
@@ -19,7 +19,7 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>Tên</t>
   </si>
   <si>
     <t>Ngày Nhập Hàng</t>
@@ -555,8 +555,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="5" width="15.7109375" customWidth="1"/>
+    <col min="1" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
